--- a/TraningProject/TestDataDriven/TestData1.xlsx
+++ b/TraningProject/TestDataDriven/TestData1.xlsx
@@ -33,7 +33,7 @@
     <t>RAIVpflpDOg=</t>
   </si>
   <si>
-    <t>luong@yourstore.com</t>
+    <t>luongho@yourstore.com</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
